--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatC201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatC201718.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="24" windowWidth="14340" windowHeight="4512" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="54">
   <si>
     <t>TC</t>
   </si>
@@ -176,12 +181,15 @@
   </si>
   <si>
     <t>TwoWeekly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll National Insurance calculation Test result.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -273,13 +281,16 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -328,7 +339,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,9 +372,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -396,6 +424,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -571,22 +616,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,7 +645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
@@ -614,7 +659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -628,7 +673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
@@ -642,7 +687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -656,7 +701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -670,7 +715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -684,7 +729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -698,13 +743,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" s="5"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E13" s="5"/>
     </row>
   </sheetData>
@@ -714,24 +759,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="59.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.44140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="59.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.42578125" style="5" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -754,7 +799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
@@ -771,7 +816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
@@ -788,7 +833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
@@ -806,7 +851,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -824,7 +869,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
@@ -849,28 +894,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="33" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="50.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="50.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>31</v>
       </c>
@@ -911,7 +956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>51</v>
       </c>
@@ -949,7 +994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -984,7 +1029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>51</v>
       </c>
@@ -1019,7 +1064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>51</v>
       </c>
@@ -1054,7 +1099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>51</v>
       </c>
@@ -1091,11 +1136,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
@@ -1103,29 +1148,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.21875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="54.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.33203125" style="5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="49.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="54.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.28515625" style="5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>31</v>
       </c>
@@ -1169,7 +1214,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>51</v>
       </c>
@@ -1192,7 +1237,7 @@
         <v>40</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>44</v>
@@ -1209,7 +1254,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatC201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatC201718.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="53">
   <si>
     <t>TC</t>
   </si>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>TestReportWorksheetNo</t>
-  </si>
-  <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\Payroll Tax Test Report 201718\\201718 Payroll National Insurance calculation Test result.xlsx</t>
   </si>
   <si>
     <t>C Employees over State pension age (attach passport/birth certificate)</t>
@@ -189,7 +186,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -281,7 +278,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -616,7 +613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -661,7 +658,7 @@
     </row>
     <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -759,7 +756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -804,7 +801,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="12">
         <v>8165.04</v>
@@ -821,7 +818,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="12">
         <v>8165.3</v>
@@ -838,7 +835,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="12">
         <v>45007.040000000001</v>
@@ -856,7 +853,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="12">
         <v>45007.3</v>
@@ -874,7 +871,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="12">
         <v>66170</v>
@@ -894,11 +891,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,13 +955,13 @@
     </row>
     <row r="2" spans="1:13" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>18</v>
@@ -973,13 +970,13 @@
         <v>43</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>40</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>41</v>
@@ -996,13 +993,13 @@
     </row>
     <row r="3" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>18</v>
@@ -1011,13 +1008,13 @@
         <v>43</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>40</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>41</v>
@@ -1031,13 +1028,13 @@
     </row>
     <row r="4" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>18</v>
@@ -1046,13 +1043,13 @@
         <v>43</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>40</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>41</v>
@@ -1066,13 +1063,13 @@
     </row>
     <row r="5" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>18</v>
@@ -1081,13 +1078,13 @@
         <v>43</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>40</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>41</v>
@@ -1101,13 +1098,13 @@
     </row>
     <row r="6" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>18</v>
@@ -1116,13 +1113,13 @@
         <v>43</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>40</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>41</v>
@@ -1136,11 +1133,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
@@ -1148,10 +1145,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1216,13 +1213,13 @@
     </row>
     <row r="2" spans="1:14" s="10" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>18</v>
@@ -1231,13 +1228,13 @@
         <v>43</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>40</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>44</v>
@@ -1246,7 +1243,7 @@
         <v>42</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>6</v>
@@ -1254,7 +1251,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatC201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatC201718.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
     <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -81,21 +81,6 @@
     <t>Two Weekly</t>
   </si>
   <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 101</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 102</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 103</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 104</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 105</t>
-  </si>
-  <si>
     <t>TestReports</t>
   </si>
   <si>
@@ -174,13 +159,28 @@
     <t>NI2WeeklyCat_C</t>
   </si>
   <si>
-    <t>DO NOT TOUCH PAYROLL AUTOMATION EMPLOYER_17/18</t>
-  </si>
-  <si>
-    <t>TwoWeekly_Payroll</t>
-  </si>
-  <si>
     <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll National Insurance calculation Test result.xlsx</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 459</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 460</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 461</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 462</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 463</t>
+  </si>
+  <si>
+    <t>DONT TOUCH AUTO NI2WCC EMPLOYER</t>
+  </si>
+  <si>
+    <t>NI2WCC_Payroll</t>
   </si>
 </sst>
 </file>
@@ -238,7 +238,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -247,7 +247,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -257,9 +256,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -271,9 +267,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -643,22 +638,22 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>28</v>
+      <c r="A2" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -670,26 +665,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>27</v>
+    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>24</v>
+      <c r="A5" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -698,7 +693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -713,7 +708,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -741,13 +736,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" s="5"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E11" s="5"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E13" s="5"/>
+      <c r="E13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -760,7 +755,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,7 +763,7 @@
     <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="59.42578125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.42578125" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.42578125" style="4" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
@@ -797,13 +792,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="12">
+      <c r="B2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="10">
         <v>8165.04</v>
       </c>
       <c r="D2" t="s">
@@ -814,16 +809,16 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="12">
+      <c r="A3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="10">
         <v>8165.3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -831,16 +826,16 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="12">
+      <c r="A4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="10">
         <v>45007.040000000001</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -849,16 +844,16 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="12">
+      <c r="A5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="10">
         <v>45007.3</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -867,16 +862,16 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="A6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="10">
         <v>66170</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -894,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,222 +907,222 @@
     <col min="10" max="10" width="18.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="K1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="F3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="E6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="10" t="s">
+      <c r="G6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1138,9 +1133,10 @@
     <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
     <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
     <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2:A6" r:id="rId6" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1148,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,94 +1160,95 @@
     <col min="8" max="8" width="54.28515625" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="15.42578125" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.28515625" style="5" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.28515625" style="4" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="K1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="H2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="K2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="8" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatC201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatC201718.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3"/>
+    <workbookView activeTab="3" windowHeight="4515" windowWidth="14340" xWindow="390" yWindow="30"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NI2WeeklyCat_C" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NI2WeeklyCat_C" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForNIWeekly" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="53">
   <si>
     <t>TC</t>
   </si>
@@ -187,6 +187,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -234,49 +235,49 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -293,10 +294,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -331,7 +332,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -383,7 +384,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -488,7 +489,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -497,13 +498,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -513,7 +514,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -522,7 +523,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -531,7 +532,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -541,12 +542,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -577,7 +578,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -596,7 +597,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -608,7 +609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -617,10 +618,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -637,7 +638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -651,7 +652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -665,7 +666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
@@ -679,7 +680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
@@ -693,7 +694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -707,7 +708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -721,7 +722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -745,13 +746,13 @@
       <c r="E13" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -760,12 +761,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="59.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="59.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="18.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -880,13 +881,13 @@
       <c r="H6" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -895,19 +896,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="50.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="39.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="50.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="18.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -948,7 +949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>51</v>
       </c>
@@ -986,7 +987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="3" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>51</v>
       </c>
@@ -1021,7 +1022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="4" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>51</v>
       </c>
@@ -1056,7 +1057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="5" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>51</v>
       </c>
@@ -1091,7 +1092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="6" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>51</v>
       </c>
@@ -1128,20 +1129,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2:A6" r:id="rId6" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId2" ref="E3"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId3" ref="E4"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId4" ref="E5"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId5" ref="E6"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId6" ref="A2:A6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId7" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1150,20 +1151,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="54.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="49.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="54.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="4" width="22.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -1207,7 +1208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="42.75" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>51</v>
       </c>
@@ -1247,9 +1248,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatC201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatC201718.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3"/>
+    <workbookView activeTab="3" windowHeight="4515" windowWidth="14340" xWindow="390" yWindow="30"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NI2WeeklyCat_C" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NI2WeeklyCat_C" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForNIWeekly" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="53">
   <si>
     <t>TC</t>
   </si>
@@ -187,6 +187,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -234,49 +235,49 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -293,10 +294,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -331,7 +332,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -383,7 +384,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -488,7 +489,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -497,13 +498,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -513,7 +514,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -522,7 +523,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -531,7 +532,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -541,12 +542,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -577,7 +578,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -596,7 +597,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -608,7 +609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -617,10 +618,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -637,7 +638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -651,7 +652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -665,7 +666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
@@ -679,7 +680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
@@ -693,7 +694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -707,7 +708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -721,7 +722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -745,13 +746,13 @@
       <c r="E13" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -760,12 +761,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="59.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="59.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="18.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -880,13 +881,13 @@
       <c r="H6" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -895,19 +896,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="50.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="39.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="50.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="18.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -948,7 +949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>51</v>
       </c>
@@ -986,7 +987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="3" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>51</v>
       </c>
@@ -1021,7 +1022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="4" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>51</v>
       </c>
@@ -1056,7 +1057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="5" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>51</v>
       </c>
@@ -1091,7 +1092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="6" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>51</v>
       </c>
@@ -1128,20 +1129,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2:A6" r:id="rId6" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId2" ref="E3"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId3" ref="E4"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId4" ref="E5"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId5" ref="E6"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId6" ref="A2:A6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId7" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1150,20 +1151,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="54.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.28515625" style="4" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="49.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="54.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="4" width="22.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -1207,7 +1208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="42.75" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>51</v>
       </c>
@@ -1247,9 +1248,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatC201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 2WeeklyCatC201718.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="4515" windowWidth="14340" xWindow="390" yWindow="30"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="NI2WeeklyCat_C" r:id="rId2" sheetId="2"/>
-    <sheet name="ProcessPayrollForNIWeekly" r:id="rId3" sheetId="4"/>
-    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="NI2WeeklyCat_C" sheetId="2" r:id="rId2"/>
+    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
+    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="53">
   <si>
     <t>TC</t>
   </si>
@@ -187,7 +187,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -235,49 +234,49 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -294,10 +293,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -332,7 +331,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -384,7 +383,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -489,7 +488,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -498,13 +497,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -514,7 +513,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -523,7 +522,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -532,7 +531,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -542,12 +541,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -578,7 +577,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -597,7 +596,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -609,7 +608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -618,10 +617,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -638,7 +637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -652,7 +651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -666,7 +665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
@@ -680,7 +679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row ht="45" r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
@@ -694,7 +693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" r="6" s="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -708,7 +707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row ht="30" r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -722,7 +721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row ht="75" r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -746,13 +745,13 @@
       <c r="E13" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -761,12 +760,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="59.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="4" width="18.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="59.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -881,13 +880,13 @@
       <c r="H6" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -896,19 +895,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="53.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="39.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="50.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="1" max="1" width="53" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="50.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -949,7 +948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>51</v>
       </c>
@@ -987,7 +986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="3" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>51</v>
       </c>
@@ -1022,7 +1021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="4" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>51</v>
       </c>
@@ -1057,7 +1056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="5" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>51</v>
       </c>
@@ -1092,7 +1091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="6" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>51</v>
       </c>
@@ -1129,20 +1128,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId2" ref="E3"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId3" ref="E4"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId4" ref="E5"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId5" ref="E6"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId6" ref="A2:A6"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2:A6" r:id="rId6" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId7" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1151,20 +1150,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="49.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="54.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="4" width="22.28515625" collapsed="true"/>
+    <col min="1" max="1" width="49.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="54.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.28515625" style="4" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -1208,7 +1207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="42.75" r="2" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>51</v>
       </c>
@@ -1248,9 +1247,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>